--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200319/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)测试报告.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200319/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)测试报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="测试概况" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -116,12 +116,6 @@
     <t>曹宇星</t>
   </si>
   <si>
-    <t>新装商务彩铃群组（448）时查询综资已被占用号码</t>
-  </si>
-  <si>
-    <t>新装商务彩铃群组（448）时查询并选占综资空闲号码，选占完成后再次查询选占另一个空闲号码</t>
-  </si>
-  <si>
     <t>商务彩铃群组（448）拆机（使用选占综资号码新装完工的设备）</t>
   </si>
   <si>
@@ -166,11 +160,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>CSB</t>
+    <t>新CRM受理商务彩铃群组（448）选占设备号时调用接口查询综资中空闲的号码选占。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
+    <t>张轶晟</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -178,11 +172,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>新CRM受理商务彩铃群组（448）选占设备号时调用接口查询综资中空闲的号码选占。</t>
+    <t>测试通过</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>系统异常,csb号码查询失败</t>
+    <t>IBP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceID未做更新覆盖，导致受理拆机单报错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020032305208949</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020032405211901</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020032405211919</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -383,49 +397,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47627</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1409702" y="190502"/>
-          <a:ext cx="571498" cy="372402"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT5"/>
+  <dimension ref="A1:IT3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5"/>
@@ -1013,19 +984,27 @@
       <c r="IT1" s="22"/>
     </row>
     <row r="2" spans="1:254" ht="45" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E2" s="20"/>
-      <c r="F2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="G2" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H2" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>21</v>
@@ -1043,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -1291,12 +1270,18 @@
       <c r="IT2" s="23"/>
     </row>
     <row r="3" spans="1:254" ht="56.1" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" s="20"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -1548,539 +1533,23 @@
       <c r="IS3" s="23"/>
       <c r="IT3" s="23"/>
     </row>
-    <row r="4" spans="1:254" ht="78" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="23"/>
-      <c r="BJ4" s="23"/>
-      <c r="BK4" s="23"/>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23"/>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="23"/>
-      <c r="BP4" s="23"/>
-      <c r="BQ4" s="23"/>
-      <c r="BR4" s="23"/>
-      <c r="BS4" s="23"/>
-      <c r="BT4" s="23"/>
-      <c r="BU4" s="23"/>
-      <c r="BV4" s="23"/>
-      <c r="BW4" s="23"/>
-      <c r="BX4" s="23"/>
-      <c r="BY4" s="23"/>
-      <c r="BZ4" s="23"/>
-      <c r="CA4" s="23"/>
-      <c r="CB4" s="23"/>
-      <c r="CC4" s="23"/>
-      <c r="CD4" s="23"/>
-      <c r="CE4" s="23"/>
-      <c r="CF4" s="23"/>
-      <c r="CG4" s="23"/>
-      <c r="CH4" s="23"/>
-      <c r="CI4" s="23"/>
-      <c r="CJ4" s="23"/>
-      <c r="CK4" s="23"/>
-      <c r="CL4" s="23"/>
-      <c r="CM4" s="23"/>
-      <c r="CN4" s="23"/>
-      <c r="CO4" s="23"/>
-      <c r="CP4" s="23"/>
-      <c r="CQ4" s="23"/>
-      <c r="CR4" s="23"/>
-      <c r="CS4" s="23"/>
-      <c r="CT4" s="23"/>
-      <c r="CU4" s="23"/>
-      <c r="CV4" s="23"/>
-      <c r="CW4" s="23"/>
-      <c r="CX4" s="23"/>
-      <c r="CY4" s="23"/>
-      <c r="CZ4" s="23"/>
-      <c r="DA4" s="23"/>
-      <c r="DB4" s="23"/>
-      <c r="DC4" s="23"/>
-      <c r="DD4" s="23"/>
-      <c r="DE4" s="23"/>
-      <c r="DF4" s="23"/>
-      <c r="DG4" s="23"/>
-      <c r="DH4" s="23"/>
-      <c r="DI4" s="23"/>
-      <c r="DJ4" s="23"/>
-      <c r="DK4" s="23"/>
-      <c r="DL4" s="23"/>
-      <c r="DM4" s="23"/>
-      <c r="DN4" s="23"/>
-      <c r="DO4" s="23"/>
-      <c r="DP4" s="23"/>
-      <c r="DQ4" s="23"/>
-      <c r="DR4" s="23"/>
-      <c r="DS4" s="23"/>
-      <c r="DT4" s="23"/>
-      <c r="DU4" s="23"/>
-      <c r="DV4" s="23"/>
-      <c r="DW4" s="23"/>
-      <c r="DX4" s="23"/>
-      <c r="DY4" s="23"/>
-      <c r="DZ4" s="23"/>
-      <c r="EA4" s="23"/>
-      <c r="EB4" s="23"/>
-      <c r="EC4" s="23"/>
-      <c r="ED4" s="23"/>
-      <c r="EE4" s="23"/>
-      <c r="EF4" s="23"/>
-      <c r="EG4" s="23"/>
-      <c r="EH4" s="23"/>
-      <c r="EI4" s="23"/>
-      <c r="EJ4" s="23"/>
-      <c r="EK4" s="23"/>
-      <c r="EL4" s="23"/>
-      <c r="EM4" s="23"/>
-      <c r="EN4" s="23"/>
-      <c r="EO4" s="23"/>
-      <c r="EP4" s="23"/>
-      <c r="EQ4" s="23"/>
-      <c r="ER4" s="23"/>
-      <c r="ES4" s="23"/>
-      <c r="ET4" s="23"/>
-      <c r="EU4" s="23"/>
-      <c r="EV4" s="23"/>
-      <c r="EW4" s="23"/>
-      <c r="EX4" s="23"/>
-      <c r="EY4" s="23"/>
-      <c r="EZ4" s="23"/>
-      <c r="FA4" s="23"/>
-      <c r="FB4" s="23"/>
-      <c r="FC4" s="23"/>
-      <c r="FD4" s="23"/>
-      <c r="FE4" s="23"/>
-      <c r="FF4" s="23"/>
-      <c r="FG4" s="23"/>
-      <c r="FH4" s="23"/>
-      <c r="FI4" s="23"/>
-      <c r="FJ4" s="23"/>
-      <c r="FK4" s="23"/>
-      <c r="FL4" s="23"/>
-      <c r="FM4" s="23"/>
-      <c r="FN4" s="23"/>
-      <c r="FO4" s="23"/>
-      <c r="FP4" s="23"/>
-      <c r="FQ4" s="23"/>
-      <c r="FR4" s="23"/>
-      <c r="FS4" s="23"/>
-      <c r="FT4" s="23"/>
-      <c r="FU4" s="23"/>
-      <c r="FV4" s="23"/>
-      <c r="FW4" s="23"/>
-      <c r="FX4" s="23"/>
-      <c r="FY4" s="23"/>
-      <c r="FZ4" s="23"/>
-      <c r="GA4" s="23"/>
-      <c r="GB4" s="23"/>
-      <c r="GC4" s="23"/>
-      <c r="GD4" s="23"/>
-      <c r="GE4" s="23"/>
-      <c r="GF4" s="23"/>
-      <c r="GG4" s="23"/>
-      <c r="GH4" s="23"/>
-      <c r="GI4" s="23"/>
-      <c r="GJ4" s="23"/>
-      <c r="GK4" s="23"/>
-      <c r="GL4" s="23"/>
-      <c r="GM4" s="23"/>
-      <c r="GN4" s="23"/>
-      <c r="GO4" s="23"/>
-      <c r="GP4" s="23"/>
-      <c r="GQ4" s="23"/>
-      <c r="GR4" s="23"/>
-      <c r="GS4" s="23"/>
-      <c r="GT4" s="23"/>
-      <c r="GU4" s="23"/>
-      <c r="GV4" s="23"/>
-      <c r="GW4" s="23"/>
-      <c r="GX4" s="23"/>
-      <c r="GY4" s="23"/>
-      <c r="GZ4" s="23"/>
-      <c r="HA4" s="23"/>
-      <c r="HB4" s="23"/>
-      <c r="HC4" s="23"/>
-      <c r="HD4" s="23"/>
-      <c r="HE4" s="23"/>
-      <c r="HF4" s="23"/>
-      <c r="HG4" s="23"/>
-      <c r="HH4" s="23"/>
-      <c r="HI4" s="23"/>
-      <c r="HJ4" s="23"/>
-      <c r="HK4" s="23"/>
-      <c r="HL4" s="23"/>
-      <c r="HM4" s="23"/>
-      <c r="HN4" s="23"/>
-      <c r="HO4" s="23"/>
-      <c r="HP4" s="23"/>
-      <c r="HQ4" s="23"/>
-      <c r="HR4" s="23"/>
-      <c r="HS4" s="23"/>
-      <c r="HT4" s="23"/>
-      <c r="HU4" s="23"/>
-      <c r="HV4" s="23"/>
-      <c r="HW4" s="23"/>
-      <c r="HX4" s="23"/>
-      <c r="HY4" s="23"/>
-      <c r="HZ4" s="23"/>
-      <c r="IA4" s="23"/>
-      <c r="IB4" s="23"/>
-      <c r="IC4" s="23"/>
-      <c r="ID4" s="23"/>
-      <c r="IE4" s="23"/>
-      <c r="IF4" s="23"/>
-      <c r="IG4" s="23"/>
-      <c r="IH4" s="23"/>
-      <c r="II4" s="23"/>
-      <c r="IJ4" s="23"/>
-      <c r="IK4" s="23"/>
-      <c r="IL4" s="23"/>
-      <c r="IM4" s="23"/>
-      <c r="IN4" s="23"/>
-      <c r="IO4" s="23"/>
-      <c r="IP4" s="23"/>
-      <c r="IQ4" s="23"/>
-      <c r="IR4" s="23"/>
-      <c r="IS4" s="23"/>
-      <c r="IT4" s="23"/>
-    </row>
-    <row r="5" spans="1:254" ht="56.1" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="23"/>
-      <c r="BP5" s="23"/>
-      <c r="BQ5" s="23"/>
-      <c r="BR5" s="23"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="23"/>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="23"/>
-      <c r="BW5" s="23"/>
-      <c r="BX5" s="23"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="23"/>
-      <c r="CA5" s="23"/>
-      <c r="CB5" s="23"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23"/>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23"/>
-      <c r="CJ5" s="23"/>
-      <c r="CK5" s="23"/>
-      <c r="CL5" s="23"/>
-      <c r="CM5" s="23"/>
-      <c r="CN5" s="23"/>
-      <c r="CO5" s="23"/>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="23"/>
-      <c r="CR5" s="23"/>
-      <c r="CS5" s="23"/>
-      <c r="CT5" s="23"/>
-      <c r="CU5" s="23"/>
-      <c r="CV5" s="23"/>
-      <c r="CW5" s="23"/>
-      <c r="CX5" s="23"/>
-      <c r="CY5" s="23"/>
-      <c r="CZ5" s="23"/>
-      <c r="DA5" s="23"/>
-      <c r="DB5" s="23"/>
-      <c r="DC5" s="23"/>
-      <c r="DD5" s="23"/>
-      <c r="DE5" s="23"/>
-      <c r="DF5" s="23"/>
-      <c r="DG5" s="23"/>
-      <c r="DH5" s="23"/>
-      <c r="DI5" s="23"/>
-      <c r="DJ5" s="23"/>
-      <c r="DK5" s="23"/>
-      <c r="DL5" s="23"/>
-      <c r="DM5" s="23"/>
-      <c r="DN5" s="23"/>
-      <c r="DO5" s="23"/>
-      <c r="DP5" s="23"/>
-      <c r="DQ5" s="23"/>
-      <c r="DR5" s="23"/>
-      <c r="DS5" s="23"/>
-      <c r="DT5" s="23"/>
-      <c r="DU5" s="23"/>
-      <c r="DV5" s="23"/>
-      <c r="DW5" s="23"/>
-      <c r="DX5" s="23"/>
-      <c r="DY5" s="23"/>
-      <c r="DZ5" s="23"/>
-      <c r="EA5" s="23"/>
-      <c r="EB5" s="23"/>
-      <c r="EC5" s="23"/>
-      <c r="ED5" s="23"/>
-      <c r="EE5" s="23"/>
-      <c r="EF5" s="23"/>
-      <c r="EG5" s="23"/>
-      <c r="EH5" s="23"/>
-      <c r="EI5" s="23"/>
-      <c r="EJ5" s="23"/>
-      <c r="EK5" s="23"/>
-      <c r="EL5" s="23"/>
-      <c r="EM5" s="23"/>
-      <c r="EN5" s="23"/>
-      <c r="EO5" s="23"/>
-      <c r="EP5" s="23"/>
-      <c r="EQ5" s="23"/>
-      <c r="ER5" s="23"/>
-      <c r="ES5" s="23"/>
-      <c r="ET5" s="23"/>
-      <c r="EU5" s="23"/>
-      <c r="EV5" s="23"/>
-      <c r="EW5" s="23"/>
-      <c r="EX5" s="23"/>
-      <c r="EY5" s="23"/>
-      <c r="EZ5" s="23"/>
-      <c r="FA5" s="23"/>
-      <c r="FB5" s="23"/>
-      <c r="FC5" s="23"/>
-      <c r="FD5" s="23"/>
-      <c r="FE5" s="23"/>
-      <c r="FF5" s="23"/>
-      <c r="FG5" s="23"/>
-      <c r="FH5" s="23"/>
-      <c r="FI5" s="23"/>
-      <c r="FJ5" s="23"/>
-      <c r="FK5" s="23"/>
-      <c r="FL5" s="23"/>
-      <c r="FM5" s="23"/>
-      <c r="FN5" s="23"/>
-      <c r="FO5" s="23"/>
-      <c r="FP5" s="23"/>
-      <c r="FQ5" s="23"/>
-      <c r="FR5" s="23"/>
-      <c r="FS5" s="23"/>
-      <c r="FT5" s="23"/>
-      <c r="FU5" s="23"/>
-      <c r="FV5" s="23"/>
-      <c r="FW5" s="23"/>
-      <c r="FX5" s="23"/>
-      <c r="FY5" s="23"/>
-      <c r="FZ5" s="23"/>
-      <c r="GA5" s="23"/>
-      <c r="GB5" s="23"/>
-      <c r="GC5" s="23"/>
-      <c r="GD5" s="23"/>
-      <c r="GE5" s="23"/>
-      <c r="GF5" s="23"/>
-      <c r="GG5" s="23"/>
-      <c r="GH5" s="23"/>
-      <c r="GI5" s="23"/>
-      <c r="GJ5" s="23"/>
-      <c r="GK5" s="23"/>
-      <c r="GL5" s="23"/>
-      <c r="GM5" s="23"/>
-      <c r="GN5" s="23"/>
-      <c r="GO5" s="23"/>
-      <c r="GP5" s="23"/>
-      <c r="GQ5" s="23"/>
-      <c r="GR5" s="23"/>
-      <c r="GS5" s="23"/>
-      <c r="GT5" s="23"/>
-      <c r="GU5" s="23"/>
-      <c r="GV5" s="23"/>
-      <c r="GW5" s="23"/>
-      <c r="GX5" s="23"/>
-      <c r="GY5" s="23"/>
-      <c r="GZ5" s="23"/>
-      <c r="HA5" s="23"/>
-      <c r="HB5" s="23"/>
-      <c r="HC5" s="23"/>
-      <c r="HD5" s="23"/>
-      <c r="HE5" s="23"/>
-      <c r="HF5" s="23"/>
-      <c r="HG5" s="23"/>
-      <c r="HH5" s="23"/>
-      <c r="HI5" s="23"/>
-      <c r="HJ5" s="23"/>
-      <c r="HK5" s="23"/>
-      <c r="HL5" s="23"/>
-      <c r="HM5" s="23"/>
-      <c r="HN5" s="23"/>
-      <c r="HO5" s="23"/>
-      <c r="HP5" s="23"/>
-      <c r="HQ5" s="23"/>
-      <c r="HR5" s="23"/>
-      <c r="HS5" s="23"/>
-      <c r="HT5" s="23"/>
-      <c r="HU5" s="23"/>
-      <c r="HV5" s="23"/>
-      <c r="HW5" s="23"/>
-      <c r="HX5" s="23"/>
-      <c r="HY5" s="23"/>
-      <c r="HZ5" s="23"/>
-      <c r="IA5" s="23"/>
-      <c r="IB5" s="23"/>
-      <c r="IC5" s="23"/>
-      <c r="ID5" s="23"/>
-      <c r="IE5" s="23"/>
-      <c r="IF5" s="23"/>
-      <c r="IG5" s="23"/>
-      <c r="IH5" s="23"/>
-      <c r="II5" s="23"/>
-      <c r="IJ5" s="23"/>
-      <c r="IK5" s="23"/>
-      <c r="IL5" s="23"/>
-      <c r="IM5" s="23"/>
-      <c r="IN5" s="23"/>
-      <c r="IO5" s="23"/>
-      <c r="IP5" s="23"/>
-      <c r="IQ5" s="23"/>
-      <c r="IR5" s="23"/>
-      <c r="IS5" s="23"/>
-      <c r="IT5" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2091,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5"/>
@@ -2101,7 +1570,7 @@
     <col min="2" max="2" width="9.625" style="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1"/>
-    <col min="5" max="5" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" style="3"/>
     <col min="8" max="8" width="8.25" style="1"/>
@@ -2113,66 +1582,70 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.95" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="36">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>206297138</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9">
-        <v>43909.614583333336</v>
+        <v>43913.43472222222</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="9">
+        <v>43914.451388888891</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2635,6 +2108,5 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200319/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)测试报告.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200319/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)/【政企受理工作台】【功能需求】商务彩铃群组（448）的设备号是通过综资选号接口返回 (206297138)测试报告.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>序号</t>
   </si>
@@ -40,9 +40,6 @@
     </r>
   </si>
   <si>
-    <t>测试负责人</t>
-  </si>
-  <si>
     <t>需求分析</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>CRM订单号</t>
   </si>
   <si>
-    <t>发现人</t>
-  </si>
-  <si>
     <t>发现BUG时间</t>
   </si>
   <si>
@@ -156,15 +150,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>张轶晟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>新CRM受理商务彩铃群组（448）选占设备号时调用接口查询综资中空闲的号码选占。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>张轶晟</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -376,14 +362,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT3"/>
+  <dimension ref="A1:IS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5"/>
@@ -670,24 +656,23 @@
     <col min="3" max="3" width="14.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="15" customWidth="1"/>
-    <col min="13" max="13" width="25.375" style="15" customWidth="1"/>
-    <col min="14" max="14" width="22.125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="16.25" style="15" customWidth="1"/>
-    <col min="16" max="16" width="12" style="15" customWidth="1"/>
-    <col min="17" max="17" width="17.25" style="15" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="15" customWidth="1"/>
-    <col min="19" max="19" width="9.25" style="15" customWidth="1"/>
-    <col min="20" max="16384" width="8.25" style="15"/>
+    <col min="6" max="6" width="23.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="15" customWidth="1"/>
+    <col min="12" max="12" width="25.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="22.125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="15" customWidth="1"/>
+    <col min="15" max="15" width="12" style="15" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="8.25" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254">
+    <row r="1" spans="1:253">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -703,13 +688,13 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -724,30 +709,28 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="T1" s="22"/>
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
@@ -981,59 +964,56 @@
       <c r="IQ1" s="22"/>
       <c r="IR1" s="22"/>
       <c r="IS1" s="22"/>
-      <c r="IT1" s="22"/>
-    </row>
-    <row r="2" spans="1:254" ht="45" customHeight="1">
+    </row>
+    <row r="2" spans="1:253" ht="45" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="26">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="24">
-        <v>2</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24">
+        <v>206297138</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="26">
-        <v>206297138</v>
-      </c>
       <c r="M2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="26"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -1267,37 +1247,36 @@
       <c r="IQ2" s="23"/>
       <c r="IR2" s="23"/>
       <c r="IS2" s="23"/>
-      <c r="IT2" s="23"/>
-    </row>
-    <row r="3" spans="1:254" ht="56.1" customHeight="1">
+    </row>
+    <row r="3" spans="1:253" ht="56.1" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
@@ -1531,25 +1510,23 @@
       <c r="IQ3" s="23"/>
       <c r="IR3" s="23"/>
       <c r="IS3" s="23"/>
-      <c r="IT3" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
+  <mergeCells count="14">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5"/>
@@ -1569,53 +1546,49 @@
     <col min="1" max="1" width="8.25" style="1"/>
     <col min="2" max="2" width="9.625" style="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="1"/>
-    <col min="5" max="5" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="3"/>
-    <col min="8" max="8" width="8.25" style="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.25" style="1"/>
+    <col min="4" max="4" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="3"/>
+    <col min="7" max="7" width="8.25" style="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="36">
+    </row>
+    <row r="2" spans="1:10" ht="36">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1623,486 +1596,445 @@
         <v>206297138</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9">
         <v>43913.43472222222</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="9">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="9">
         <v>43914.451388888891</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="12"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="13"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="13"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="13"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="13"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="13"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" s="13"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="13"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="13"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="13"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="13"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="13"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="13"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" s="13"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" s="13"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="8"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="I28" s="13"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" s="13"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="8"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="I30" s="13"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="8"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="I31" s="13"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="I32" s="13"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="I33" s="13"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="8"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="I34" s="13"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="8"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="I35" s="13"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="8"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="I36" s="13"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="8"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="I37" s="13"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="8"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="I38" s="13"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="8"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="I39" s="13"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="8"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="11"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
